--- a/data/trans_orig/P41C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Estudios-trans_orig.xlsx
@@ -754,16 +754,16 @@
         <v>49260</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46002</v>
+        <v>46554</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>50531</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9748382175628654</v>
+        <v>0.9748382175628652</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9103737147962001</v>
+        <v>0.9212970309413514</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -775,16 +775,16 @@
         <v>103502</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100784</v>
+        <v>100480</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>104773</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.987864771405083</v>
+        <v>0.9878647714050828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9619280625108728</v>
+        <v>0.959023521474813</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2546</v>
+        <v>2970</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01105410985806874</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0503828505479809</v>
+        <v>0.0587813849089705</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -888,16 +888,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>2791</v>
+        <v>3169</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.005331265794708384</v>
+        <v>0.005331265794708383</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02663914605473301</v>
+        <v>0.03025010724789096</v>
       </c>
     </row>
     <row r="7">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3991</v>
+        <v>3496</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01410767257906598</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07897280873163146</v>
+        <v>0.06918349381625363</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -998,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3091</v>
+        <v>3552</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.006803962800208688</v>
+        <v>0.006803962800208685</v>
       </c>
       <c r="V8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02949780161139358</v>
+        <v>0.03389931300286857</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>449806</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>439427</v>
+        <v>439474</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>457272</v>
+        <v>456905</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9629046245215491</v>
+        <v>0.9629046245215492</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9406860504972144</v>
+        <v>0.9407853856702163</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9788864774399197</v>
+        <v>0.9781014869872584</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>662</v>
@@ -1120,19 +1120,19 @@
         <v>504544</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>496562</v>
+        <v>497239</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>509827</v>
+        <v>510203</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9717942430101244</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9564204249566838</v>
+        <v>0.9577250387995373</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9819705379670687</v>
+        <v>0.98269319078527</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1042</v>
@@ -1141,19 +1141,19 @@
         <v>954350</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>942412</v>
+        <v>942003</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>964249</v>
+        <v>964238</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.967584005595251</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.955480273359938</v>
+        <v>0.9550650218185088</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9776201058105585</v>
+        <v>0.977608249895869</v>
       </c>
     </row>
     <row r="11">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8109</v>
+        <v>7082</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004835030159427395</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01735927958782209</v>
+        <v>0.0151595016762181</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1191,19 +1191,19 @@
         <v>3393</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7691</v>
+        <v>7836</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006534287612185503</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002053156714434829</v>
+        <v>0.002054337922808441</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0148144386099956</v>
+        <v>0.01509231946675242</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1212,19 +1212,19 @@
         <v>5651</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2544</v>
+        <v>2296</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11720</v>
+        <v>11988</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.005729497472507497</v>
+        <v>0.005729497472507498</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002579039542158513</v>
+        <v>0.002327522576053598</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0118820341983935</v>
+        <v>0.01215428124513942</v>
       </c>
     </row>
     <row r="12">
@@ -1241,19 +1241,19 @@
         <v>7733</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3313</v>
+        <v>3286</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14771</v>
+        <v>15385</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01655506100678398</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007092172738751535</v>
+        <v>0.007035052681461484</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03162049740492692</v>
+        <v>0.0329352315343751</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1262,19 +1262,19 @@
         <v>7551</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3898</v>
+        <v>4001</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13389</v>
+        <v>13514</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01454457878111915</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007508433861834197</v>
+        <v>0.00770671320433339</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0257886619423973</v>
+        <v>0.02603002355899186</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -1283,19 +1283,19 @@
         <v>15285</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8454</v>
+        <v>8947</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24226</v>
+        <v>23914</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01549676896783082</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.008570763100891804</v>
+        <v>0.009070682908448344</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02456208483422167</v>
+        <v>0.02424521467099899</v>
       </c>
     </row>
     <row r="13">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8584</v>
+        <v>10589</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005821133635788062</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01837612429510204</v>
+        <v>0.02266702653591631</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9452</v>
+        <v>8355</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002756963604441579</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009583419853206617</v>
+        <v>0.008470709497416197</v>
       </c>
     </row>
     <row r="14">
@@ -1375,19 +1375,19 @@
         <v>4617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1150</v>
+        <v>1165</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11557</v>
+        <v>10637</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00988415067645137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002462074690105399</v>
+        <v>0.002494959558540139</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02473925893600542</v>
+        <v>0.0227701612412147</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1396,19 +1396,19 @@
         <v>3700</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1395</v>
+        <v>1344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8793</v>
+        <v>8349</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007126890596570817</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002687044786962264</v>
+        <v>0.002589533701491406</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01693625029145125</v>
+        <v>0.01608014523152998</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1417,19 +1417,19 @@
         <v>8317</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3917</v>
+        <v>3828</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15995</v>
+        <v>16048</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00843276435996901</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003970818787789661</v>
+        <v>0.003881018507544128</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01621679921058175</v>
+        <v>0.0162706635936654</v>
       </c>
     </row>
     <row r="15">
@@ -1521,19 +1521,19 @@
         <v>161960</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150173</v>
+        <v>148331</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>168583</v>
+        <v>168775</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9351734505643973</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8671174692676967</v>
+        <v>0.8564791727312678</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9734164901325921</v>
+        <v>0.9745249372012943</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>242</v>
@@ -1542,19 +1542,19 @@
         <v>188024</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>179441</v>
+        <v>179649</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>194010</v>
+        <v>193763</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9222398124201475</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8801409256350134</v>
+        <v>0.8811601899928452</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9515976886697094</v>
+        <v>0.9503846732308886</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>377</v>
@@ -1563,19 +1563,19 @@
         <v>349984</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>337654</v>
+        <v>335861</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>359372</v>
+        <v>358743</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9281802706958953</v>
+        <v>0.9281802706958951</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.895479868223573</v>
+        <v>0.8907255149123112</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9530759732294581</v>
+        <v>0.951409382364314</v>
       </c>
     </row>
     <row r="17">
@@ -1639,19 +1639,19 @@
         <v>4393</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1115</v>
+        <v>1088</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10406</v>
+        <v>10360</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02536769064232879</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006438022571036631</v>
+        <v>0.006282545026278667</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0600850527774914</v>
+        <v>0.05981864146278323</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -1660,19 +1660,19 @@
         <v>8387</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4349</v>
+        <v>4265</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14070</v>
+        <v>13621</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04113590367569592</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02133148017620691</v>
+        <v>0.02092168126002206</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06901030076348301</v>
+        <v>0.06680915247574437</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -1681,19 +1681,19 @@
         <v>12780</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7179</v>
+        <v>6822</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>20472</v>
+        <v>20300</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03389351676467305</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01903812121840495</v>
+        <v>0.01809253893595644</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05429351068180147</v>
+        <v>0.05383762713983851</v>
       </c>
     </row>
     <row r="19">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6744</v>
+        <v>5943</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.008612650111026458</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03307770708413647</v>
+        <v>0.02915071857230005</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6469</v>
+        <v>5692</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004656834426565355</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01715649832625893</v>
+        <v>0.01509501065763082</v>
       </c>
     </row>
     <row r="20">
@@ -1773,19 +1773,19 @@
         <v>6834</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1933</v>
+        <v>1647</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19279</v>
+        <v>21220</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03945885879327398</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01116219781478509</v>
+        <v>0.009512568334912501</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.11131717057208</v>
+        <v>0.122525628929498</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1794,19 +1794,19 @@
         <v>5711</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2117</v>
+        <v>2308</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12886</v>
+        <v>12378</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02801163379313024</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01038402725300583</v>
+        <v>0.01131878231901727</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06320336334486465</v>
+        <v>0.0607126401902533</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -1815,19 +1815,19 @@
         <v>12545</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5955</v>
+        <v>5906</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>25336</v>
+        <v>25287</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03326937811286634</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01579420765147687</v>
+        <v>0.01566408080729141</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06719201161467472</v>
+        <v>0.06706285202385658</v>
       </c>
     </row>
     <row r="21">
@@ -1919,19 +1919,19 @@
         <v>666008</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>651501</v>
+        <v>649515</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>677376</v>
+        <v>676357</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9588869439600843</v>
+        <v>0.9588869439600841</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9380001188895072</v>
+        <v>0.9351403789720791</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9752534861051229</v>
+        <v>0.9737861780050007</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>971</v>
@@ -1940,19 +1940,19 @@
         <v>741827</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>730543</v>
+        <v>730680</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>749955</v>
+        <v>751072</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9589332215429412</v>
+        <v>0.9589332215429414</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9443469703428035</v>
+        <v>0.9445237899396953</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9694399367520797</v>
+        <v>0.970884660516398</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1534</v>
@@ -1961,19 +1961,19 @@
         <v>1407836</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1387975</v>
+        <v>1390576</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1421430</v>
+        <v>1423105</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9589113283252997</v>
+        <v>0.9589113283252999</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9453831780940275</v>
+        <v>0.9471546954777018</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9681704858433197</v>
+        <v>0.9693110484424435</v>
       </c>
     </row>
     <row r="23">
@@ -1993,16 +1993,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6923</v>
+        <v>8123</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.003251838954433379</v>
+        <v>0.00325183895443338</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.009967577365673719</v>
+        <v>0.01169473352816018</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -2011,19 +2011,19 @@
         <v>3393</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1060</v>
+        <v>1097</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7616</v>
+        <v>7902</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004385388325771142</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001370230698101801</v>
+        <v>0.001418185383477256</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.00984550408343657</v>
+        <v>0.01021453847828217</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -2032,19 +2032,19 @@
         <v>5651</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2244</v>
+        <v>2236</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11147</v>
+        <v>12125</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003849123431155151</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001528135200469238</v>
+        <v>0.001523221492266262</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.007592678458394208</v>
+        <v>0.008258430343788741</v>
       </c>
     </row>
     <row r="24">
@@ -2061,19 +2061,19 @@
         <v>12127</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6670</v>
+        <v>6325</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21933</v>
+        <v>21499</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0174595804992675</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.009602986635168497</v>
+        <v>0.009106706806069072</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0315785413164241</v>
+        <v>0.03095271093609177</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -2082,19 +2082,19 @@
         <v>16497</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10739</v>
+        <v>11039</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24670</v>
+        <v>24640</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02132460985974546</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01388241606838983</v>
+        <v>0.01426978081060599</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03188965385797604</v>
+        <v>0.03185167340531251</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>34</v>
@@ -2103,19 +2103,19 @@
         <v>28623</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20047</v>
+        <v>20258</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>41425</v>
+        <v>40170</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01949612350079813</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0136547951996888</v>
+        <v>0.01379852622770152</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02821587625074666</v>
+        <v>0.02736080201526014</v>
       </c>
     </row>
     <row r="25">
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9112</v>
+        <v>8191</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.00391505088730611</v>
+        <v>0.003915050887306111</v>
       </c>
       <c r="H25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01311938538799225</v>
+        <v>0.01179262963653856</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5898</v>
+        <v>6784</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002269826087684969</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007624186389670507</v>
+        <v>0.008769705644575248</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2174,19 +2174,19 @@
         <v>4475</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1257</v>
+        <v>1283</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>11837</v>
+        <v>11401</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003048156812483681</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.000855873305708889</v>
+        <v>0.00087390160588327</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008062716470949626</v>
+        <v>0.007765427435337976</v>
       </c>
     </row>
     <row r="26">
@@ -2203,19 +2203,19 @@
         <v>11451</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4732</v>
+        <v>5264</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25672</v>
+        <v>25295</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01648658569890877</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006812959054088795</v>
+        <v>0.007578965964889869</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03696084470625939</v>
+        <v>0.03641873728526238</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2224,19 +2224,19 @@
         <v>10124</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5561</v>
+        <v>5746</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17165</v>
+        <v>17647</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01308695418385704</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007188694942393675</v>
+        <v>0.007427807473873537</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02218812328499666</v>
+        <v>0.02281109496408146</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>20</v>
@@ -2245,19 +2245,19 @@
         <v>21575</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13286</v>
+        <v>12836</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36477</v>
+        <v>37167</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01469526793026305</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.009049470370733627</v>
+        <v>0.008742628273230593</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02484524090764608</v>
+        <v>0.0253156200554011</v>
       </c>
     </row>
     <row r="27">
